--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2182793.993832146</v>
+        <v>-2185068.013959583</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.154723568634</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5992994823142</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>149.7869071611079</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0459034711861</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>326.6032504631755</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.9195164279444</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>101.2115326421841</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5940585367451</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2451061843206</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>61.18493295509712</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +756,7 @@
         <v>105.7408432413276</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694837</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.40598506653476</v>
+        <v>58.4059850665347</v>
       </c>
       <c r="S3" t="n">
-        <v>159.192419416944</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4542208317152</v>
       </c>
       <c r="U3" t="n">
-        <v>111.6550460080607</v>
+        <v>225.8971409297816</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375618</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1915812011575</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>84.86367436318658</v>
+        <v>286.2882781300877</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>59.14244089107044</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>109.1811391821708</v>
       </c>
       <c r="F5" t="n">
-        <v>373.1978421308825</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1032,7 +1032,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.7253909566177</v>
+        <v>70.94313488708154</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>220.0312473843225</v>
+        <v>45.03580084128856</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.6100941567957</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819392</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1576,16 +1576,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>165.0737364348655</v>
+        <v>220.699095528176</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>51.26754340512405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.1079647910004</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2053,13 +2053,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>47.59020741486822</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>76.98447646724586</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>124.2445847092697</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>36.66617849594476</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.26879610203937</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>8.611758435210604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>41.45703344346373</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>31.67569779266513</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722632</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>49.3354756928556</v>
       </c>
       <c r="C31" t="n">
-        <v>36.5334448788218</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,22 +3187,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124552</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575772</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957283</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515441</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4040,7 +4040,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598781</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1530.906864726907</v>
+        <v>1490.811163551781</v>
       </c>
       <c r="C2" t="n">
-        <v>1161.944347786495</v>
+        <v>1121.848646611369</v>
       </c>
       <c r="D2" t="n">
-        <v>954.2682877033498</v>
+        <v>763.5829480046186</v>
       </c>
       <c r="E2" t="n">
-        <v>802.9683814800084</v>
+        <v>377.7946954063744</v>
       </c>
       <c r="F2" t="n">
-        <v>796.0228807308049</v>
+        <v>377.7946954063744</v>
       </c>
       <c r="G2" t="n">
         <v>377.7946954063744</v>
       </c>
       <c r="H2" t="n">
-        <v>47.89242221124762</v>
+        <v>47.89242221124766</v>
       </c>
       <c r="I2" t="n">
-        <v>47.89242221124762</v>
+        <v>47.89242221124766</v>
       </c>
       <c r="J2" t="n">
         <v>141.6681220034134</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971211</v>
+        <v>402.9583913971214</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883413</v>
+        <v>779.3887029883417</v>
       </c>
       <c r="M2" t="n">
         <v>1214.846500462593</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811275</v>
+        <v>1642.718462811276</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006095</v>
+        <v>2001.558186006096</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.145204794928</v>
+        <v>2270.14520479493</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562381</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="R2" t="n">
-        <v>2394.621110562381</v>
+        <v>2322.985235382641</v>
       </c>
       <c r="S2" t="n">
-        <v>2394.621110562381</v>
+        <v>2220.751364026899</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.829132242437</v>
+        <v>2220.751364026899</v>
       </c>
       <c r="U2" t="n">
-        <v>1921.046196702719</v>
+        <v>1966.968428487182</v>
       </c>
       <c r="V2" t="n">
-        <v>1921.046196702719</v>
+        <v>1966.968428487182</v>
       </c>
       <c r="W2" t="n">
-        <v>1921.046196702719</v>
+        <v>1614.199773217068</v>
       </c>
       <c r="X2" t="n">
-        <v>1921.046196702719</v>
+        <v>1614.199773217068</v>
       </c>
       <c r="Y2" t="n">
-        <v>1530.906864726907</v>
+        <v>1614.199773217068</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.825266691135</v>
+        <v>834.7809269573067</v>
       </c>
       <c r="C3" t="n">
-        <v>814.372237410008</v>
+        <v>660.3278976761798</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4378277487567</v>
+        <v>598.5249350952736</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2003727433013</v>
+        <v>439.2874800898181</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6658147701863</v>
+        <v>292.7529221167031</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6142474317284</v>
+        <v>154.7013547782452</v>
       </c>
       <c r="H3" t="n">
-        <v>114.8053148647308</v>
+        <v>47.89242221124766</v>
       </c>
       <c r="I3" t="n">
-        <v>47.89242221124762</v>
+        <v>47.89242221124766</v>
       </c>
       <c r="J3" t="n">
-        <v>110.0512068966009</v>
+        <v>110.051206896601</v>
       </c>
       <c r="K3" t="n">
-        <v>342.911313544239</v>
+        <v>296.4990696018657</v>
       </c>
       <c r="L3" t="n">
-        <v>717.4248599408247</v>
+        <v>671.0126159984516</v>
       </c>
       <c r="M3" t="n">
-        <v>1206.443725563168</v>
+        <v>1160.031481620795</v>
       </c>
       <c r="N3" t="n">
-        <v>1724.112478824943</v>
+        <v>1677.700234882571</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.262575008395</v>
+        <v>2084.850331066023</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403384</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562381</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.62516605073</v>
+        <v>2335.625166050732</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.824742397251</v>
+        <v>2335.625166050732</v>
       </c>
       <c r="T3" t="n">
-        <v>2174.824742397251</v>
+        <v>2136.176458139908</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.041867641634</v>
+        <v>1907.997527907806</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.889759409891</v>
+        <v>1672.845419676063</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.65240268169</v>
+        <v>1418.608062947862</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.800902476157</v>
+        <v>1210.756562742329</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.040603711203</v>
+        <v>1002.996263977375</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461175</v>
       </c>
       <c r="C4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461175</v>
       </c>
       <c r="D4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461175</v>
       </c>
       <c r="E4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461175</v>
       </c>
       <c r="F4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461175</v>
       </c>
       <c r="G4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461175</v>
       </c>
       <c r="H4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461175</v>
       </c>
       <c r="I4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461175</v>
       </c>
       <c r="J4" t="n">
-        <v>47.89242221124762</v>
+        <v>1817.711641461175</v>
       </c>
       <c r="K4" t="n">
-        <v>90.69073642000077</v>
+        <v>1860.509955669929</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663079</v>
+        <v>1970.803497516236</v>
       </c>
       <c r="M4" t="n">
-        <v>327.662476942074</v>
+        <v>2097.481696192002</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148794</v>
+        <v>2226.582386864808</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890145</v>
+        <v>2329.811474738943</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124548</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.8018913124548</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="R4" t="n">
-        <v>624.8018913124548</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="S4" t="n">
-        <v>408.4467587860331</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="T4" t="n">
-        <v>408.4467587860331</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="U4" t="n">
-        <v>322.7258755908951</v>
+        <v>2105.441031643102</v>
       </c>
       <c r="V4" t="n">
-        <v>322.7258755908951</v>
+        <v>2105.441031643102</v>
       </c>
       <c r="W4" t="n">
-        <v>322.7258755908951</v>
+        <v>2105.441031643102</v>
       </c>
       <c r="X4" t="n">
-        <v>322.7258755908951</v>
+        <v>1877.451480745085</v>
       </c>
       <c r="Y4" t="n">
-        <v>101.933296447365</v>
+        <v>1817.711641461175</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1576.102522773261</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C5" t="n">
-        <v>1207.14000583285</v>
+        <v>1024.022260178525</v>
       </c>
       <c r="D5" t="n">
-        <v>848.8743072260993</v>
+        <v>665.7565615717742</v>
       </c>
       <c r="E5" t="n">
-        <v>848.8743072260993</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X5" t="n">
-        <v>1576.102522773261</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y5" t="n">
-        <v>1576.102522773261</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
         <v>505.8730812692495</v>
@@ -4653,13 +4653,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4680,7 +4680,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415.489254012808</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C7" t="n">
-        <v>415.489254012808</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>415.489254012808</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>415.489254012808</v>
+        <v>656.4692519972612</v>
       </c>
       <c r="T7" t="n">
-        <v>415.489254012808</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="U7" t="n">
-        <v>415.489254012808</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="V7" t="n">
-        <v>415.489254012808</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="W7" t="n">
-        <v>415.489254012808</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="X7" t="n">
-        <v>415.489254012808</v>
+        <v>429.1610646658629</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.489254012808</v>
+        <v>429.1610646658629</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2134.371763268271</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C8" t="n">
-        <v>1765.409246327859</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="D8" t="n">
-        <v>1407.143547721108</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="E8" t="n">
-        <v>1021.355295122864</v>
+        <v>998.0581938115786</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y8" t="n">
-        <v>2520.971603332393</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5045,22 +5045,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846824</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518748</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5078,7 +5078,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,34 +5136,34 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.7766591279594</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C13" t="n">
-        <v>339.7766591279594</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>339.7766591279594</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>192.8867116300491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1286.319361344579</v>
+        <v>1643.584629540842</v>
       </c>
       <c r="V13" t="n">
-        <v>1031.634873138692</v>
+        <v>1643.584629540842</v>
       </c>
       <c r="W13" t="n">
-        <v>742.2177031017312</v>
+        <v>1354.167459503881</v>
       </c>
       <c r="X13" t="n">
-        <v>742.2177031017312</v>
+        <v>1354.167459503881</v>
       </c>
       <c r="Y13" t="n">
-        <v>521.4251239582011</v>
+        <v>1133.374880360351</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2368.748013620957</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N14" t="n">
-        <v>3348.500285847604</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O14" t="n">
-        <v>3851.472756726941</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5315,13 +5315,13 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>654.7198286198654</v>
+        <v>761.2022952478537</v>
       </c>
       <c r="C16" t="n">
-        <v>654.7198286198654</v>
+        <v>592.2661123199468</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198654</v>
+        <v>442.1494729076111</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>294.236379325218</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>147.3464318273076</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>147.3464318273076</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>147.3464318273076</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208126</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W16" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X16" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="Y16" t="n">
-        <v>836.3682934501052</v>
+        <v>942.8507600780935</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1390.197710791128</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2006.065164440651</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>2985.817436667298</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5592,10 +5592,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>658.619281250059</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="C19" t="n">
-        <v>658.619281250059</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D19" t="n">
-        <v>508.5026418377232</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E19" t="n">
-        <v>360.5895482553301</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F19" t="n">
         <v>360.5895482553301</v>
@@ -5701,22 +5701,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1716.586665350855</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1427.483798476499</v>
       </c>
       <c r="V19" t="n">
-        <v>1176.026002185037</v>
+        <v>1172.799310270612</v>
       </c>
       <c r="W19" t="n">
-        <v>886.6088321480763</v>
+        <v>883.3821402336509</v>
       </c>
       <c r="X19" t="n">
-        <v>658.619281250059</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="Y19" t="n">
-        <v>658.619281250059</v>
+        <v>655.3925893356336</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5738,37 +5738,37 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3070.887536710053</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>3573.86000758939</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4287.215095036336</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,25 +5829,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.1255161526733</v>
+        <v>912.4603716292685</v>
       </c>
       <c r="C22" t="n">
-        <v>613.1893332247664</v>
+        <v>743.5241887013616</v>
       </c>
       <c r="D22" t="n">
-        <v>613.1893332247664</v>
+        <v>593.4075492890258</v>
       </c>
       <c r="E22" t="n">
-        <v>465.2762396423733</v>
+        <v>593.4075492890258</v>
       </c>
       <c r="F22" t="n">
-        <v>318.3862921444629</v>
+        <v>446.5176017911155</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3862921444629</v>
+        <v>278.8147651658344</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>132.5975783836922</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.556111024461</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.566560126443</v>
+        <v>1314.901415603038</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.773980982913</v>
+        <v>1094.108836459508</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,19 +6066,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.8431224204016</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9069394924948</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="D25" t="n">
-        <v>633.9069394924948</v>
+        <v>260.9043113423041</v>
       </c>
       <c r="E25" t="n">
-        <v>485.9938459101016</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>811.5418683145538</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>802.8431224204016</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y25" t="n">
-        <v>802.8431224204016</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972664</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1963.918173296942</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193958</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420605</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107238</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6294,22 +6294,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>729.2066409118285</v>
+        <v>452.5901955154776</v>
       </c>
       <c r="C28" t="n">
-        <v>560.2704579839216</v>
+        <v>283.6540125875707</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>283.6540125875707</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>283.6540125875707</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1421.064854922559</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1421.064854922559</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1131.647684885598</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X28" t="n">
-        <v>1131.647684885598</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y28" t="n">
-        <v>910.8551057420682</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6467,46 +6467,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1849.525439218845</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M29" t="n">
-        <v>2383.05734389077</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N29" t="n">
-        <v>3362.809616117417</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996754</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353932</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.2950589102011</v>
+        <v>659.8526275526848</v>
       </c>
       <c r="C31" t="n">
-        <v>655.3925893356336</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D31" t="n">
-        <v>655.3925893356336</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E31" t="n">
-        <v>507.4794957532405</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
         <v>192.8867116300491</v>
@@ -6616,7 +6616,7 @@
         <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.725653781988</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1322.725653781988</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1094.736102883971</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y31" t="n">
-        <v>873.9435237404408</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.918173296942</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667299</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996754</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353932</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6768,37 +6768,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F34" t="n">
         <v>364.4578361932524</v>
@@ -6853,16 +6853,16 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,31 +6877,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>924.7493799910142</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
-        <v>1771.984857554752</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>2305.516762226677</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913845</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415474</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.90370154678</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910142</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L38" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N38" t="n">
-        <v>2533.714858195691</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O38" t="n">
-        <v>3036.687329075028</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521974</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277657</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R39" t="n">
         <v>2579.543989590362</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038484</v>
@@ -7397,61 +7397,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.404136464984</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M41" t="n">
-        <v>1986.936041136909</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N41" t="n">
-        <v>2533.714858195691</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O41" t="n">
-        <v>3036.687329075028</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521974</v>
+        <v>3477.955591919094</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277657</v>
+        <v>3936.433794428082</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7588,16 +7588,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7637,55 +7637,55 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>792.1780824632697</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
-        <v>1243.212295711679</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M44" t="n">
-        <v>1776.744200383603</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N44" t="n">
-        <v>2323.523017442385</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O44" t="n">
-        <v>2826.495488321722</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768668</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277657</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833286</v>
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
         <v>449.4840331913841</v>
@@ -7795,34 +7795,34 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7834,13 +7834,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>217.5841825253326</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>115.6465695476426</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>54.14214313080116</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8693,25 +8693,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>80.35488666587526</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,16 +8936,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>285.0508825989992</v>
       </c>
       <c r="P14" t="n">
-        <v>226.7688596193111</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
-        <v>83.16722118949338</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>119.6706498956039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9641,7 +9641,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>316.9032015413819</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>201.9664098701135</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,19 +10115,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>294.8707872801656</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>316.9032015413819</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>351.4175304294045</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>400.2032972882112</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>78.40458911672874</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>21.13839585591467</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>402.5500016878933</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>62.52018570663925</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>190.2350110279885</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>21.13839585591512</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>260.5791180948466</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232.1434629111538</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.04590347118615</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910659</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121514</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5367433600327</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>201.4246037669011</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>121.1381017707474</v>
+        <v>65.51274267743688</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>45.08487700471404</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.47668856109442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>171.958741861301</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>175.1531668565821</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>20.51043020505108</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.68624191389335</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.1651665445298</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>217.0978969538265</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>103.9640145794675</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5361404129478</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>130.4965044890817</v>
       </c>
       <c r="C31" t="n">
-        <v>130.713376219806</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-4.425349103841632e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57591.73087421738</v>
+        <v>57591.7308742174</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
+        <v>59562.26803304748</v>
+      </c>
+      <c r="F2" t="n">
         <v>59562.26803304747</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59562.26803304746</v>
       </c>
       <c r="G2" t="n">
         <v>59562.26803304748</v>
@@ -26332,28 +26332,28 @@
         <v>59562.26803304748</v>
       </c>
       <c r="I2" t="n">
-        <v>59562.26803304745</v>
+        <v>59562.26803304747</v>
       </c>
       <c r="J2" t="n">
         <v>59562.26803304748</v>
       </c>
       <c r="K2" t="n">
-        <v>59562.26803304745</v>
+        <v>59562.26803304748</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982122</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982122</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771927</v>
+        <v>501884.6814771933</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904396</v>
+        <v>83720.3126390434</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.788541631767762e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.5614629959</v>
+        <v>156634.561462996</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848974</v>
+        <v>19465.25531848962</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950531</v>
+        <v>84741.61795950525</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203100.1933923131</v>
+        <v>203100.193392313</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289571</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289573</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.8393528957</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>44019.00033111482</v>
+        <v>44019.00033111484</v>
       </c>
       <c r="M4" t="n">
-        <v>64344.18042540619</v>
+        <v>64344.18042540627</v>
       </c>
       <c r="N4" t="n">
+        <v>64344.18042540628</v>
+      </c>
+      <c r="O4" t="n">
         <v>64344.18042540624</v>
       </c>
-      <c r="O4" t="n">
-        <v>64344.18042540615</v>
-      </c>
       <c r="P4" t="n">
-        <v>64344.18042540619</v>
+        <v>64344.18042540627</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237209</v>
+        <v>76841.33769237212</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-724234.4816876603</v>
+        <v>-724367.3617498477</v>
       </c>
       <c r="C6" t="n">
-        <v>-314923.6734256655</v>
+        <v>-314923.673425665</v>
       </c>
       <c r="D6" t="n">
         <v>-231203.3607866215</v>
       </c>
       <c r="E6" t="n">
-        <v>-792760.5035669686</v>
+        <v>-792827.6990571944</v>
       </c>
       <c r="F6" t="n">
-        <v>-65383.0895735619</v>
+        <v>-65450.28506378773</v>
       </c>
       <c r="G6" t="n">
-        <v>-65383.08957356191</v>
+        <v>-65450.28506378772</v>
       </c>
       <c r="H6" t="n">
-        <v>-65383.08957356198</v>
+        <v>-65450.28506378772</v>
       </c>
       <c r="I6" t="n">
-        <v>-65383.08957356191</v>
+        <v>-65450.28506378774</v>
       </c>
       <c r="J6" t="n">
-        <v>-222017.6510365579</v>
+        <v>-222084.8465267838</v>
       </c>
       <c r="K6" t="n">
-        <v>-84848.34489205165</v>
+        <v>-84915.54038227732</v>
       </c>
       <c r="L6" t="n">
         <v>-120353.6479002698</v>
       </c>
       <c r="M6" t="n">
-        <v>-176885.6073198965</v>
+        <v>-176885.6073198963</v>
       </c>
       <c r="N6" t="n">
         <v>-92143.98936039116</v>
       </c>
       <c r="O6" t="n">
-        <v>-92143.98936039106</v>
+        <v>-92143.98936039113</v>
       </c>
       <c r="P6" t="n">
-        <v>-92143.98936039109</v>
+        <v>-92143.98936039118</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322892</v>
+        <v>312.6374684322896</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405953</v>
+        <v>598.6552776405957</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.485677039709702e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322892</v>
+        <v>312.6374684322896</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479748</v>
+        <v>65.10619578479702</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405953</v>
+        <v>598.6552776405957</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511396033</v>
+        <v>75.63199511395987</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405955</v>
+        <v>598.6552776405957</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396033</v>
+        <v>75.63199511395987</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.0491884540589</v>
+        <v>340.0491884540587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.485677039709702e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405953</v>
+        <v>598.6552776405957</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511396033</v>
+        <v>75.63199511395987</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>149.0837421383688</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.0217950910658</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794452</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097597</v>
+        <v>79.16843116757565</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.594058536745</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>86.26013260954164</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.24376372694834</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.192419416944</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4542208317152</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>114.2420949217209</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>138.4962987703072</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.50046549375612</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841873</v>
+        <v>38.95378551841866</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.9441304121514</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.1915812011575</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5367433600327</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>159.4422124610244</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>272.749230890091</v>
       </c>
       <c r="F5" t="n">
-        <v>33.67820361082897</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>78.4201479934012</v>
+        <v>141.2024040629374</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>186.844798357389</v>
+        <v>361.8402449004229</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.22188602514161</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>96.25160475629423</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859369</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.9751366185908</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
         <v>46.97513661859256</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859097</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.2568340439489</v>
+        <v>1.256834043948902</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87155165259168</v>
+        <v>12.8715516525917</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934002</v>
+        <v>48.45409447934009</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376081</v>
+        <v>106.6722184376082</v>
       </c>
       <c r="K2" t="n">
-        <v>159.874003517965</v>
+        <v>159.8740035179653</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904662</v>
+        <v>198.3378383904665</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6890608195425</v>
+        <v>220.6890608195428</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469123</v>
+        <v>224.2600405469126</v>
       </c>
       <c r="O2" t="n">
-        <v>211.7623970223954</v>
+        <v>211.7623970223957</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624069</v>
+        <v>180.7343065624072</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7239373634869</v>
+        <v>135.7239373634871</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320517</v>
+        <v>78.94960151320528</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648559</v>
+        <v>28.64010577648563</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386314</v>
+        <v>5.501791027386322</v>
       </c>
       <c r="U2" t="n">
-        <v>0.100546723515912</v>
+        <v>0.1005467235159121</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373767</v>
+        <v>0.6724654981373777</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168875</v>
+        <v>6.494600995168885</v>
       </c>
       <c r="I3" t="n">
-        <v>23.1528691244667</v>
+        <v>23.15286912446673</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358436</v>
+        <v>63.53324252358445</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987886</v>
+        <v>108.5884308987887</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881177</v>
+        <v>146.0105459881179</v>
       </c>
       <c r="M3" t="n">
-        <v>170.3874202955976</v>
+        <v>170.3874202955978</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072294</v>
+        <v>174.8970683072297</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853433</v>
+        <v>159.9966485853435</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434435</v>
+        <v>128.4114160434436</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522023</v>
+        <v>85.83963095522036</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610837</v>
+        <v>41.75184908610843</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689381</v>
+        <v>12.49075168689383</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106355</v>
+        <v>2.710507863106359</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324849</v>
+        <v>0.04424115119324855</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582262</v>
+        <v>0.5637724840582271</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717688</v>
+        <v>5.012449903717695</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695103</v>
+        <v>16.95417615695105</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291659</v>
+        <v>39.85871462291665</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876483</v>
+        <v>65.50011223876491</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625668</v>
+        <v>83.81759276625679</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832722</v>
+        <v>88.37389947832735</v>
       </c>
       <c r="N4" t="n">
-        <v>86.27256567411027</v>
+        <v>86.2725656741104</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801943005</v>
+        <v>79.68667801943016</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464218</v>
+        <v>68.18571934464228</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327566</v>
+        <v>47.20825773327573</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501806</v>
+        <v>25.3492609650181</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814722</v>
+        <v>9.825016835814736</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248784</v>
+        <v>2.408846068248788</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317601</v>
+        <v>0.03075122640317606</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299555</v>
+        <v>94.72292908299571</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441492</v>
+        <v>263.9295650441495</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709294</v>
+        <v>380.2326379709297</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851022</v>
+        <v>439.8563610851025</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623056</v>
+        <v>432.1939013623059</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634541</v>
+        <v>362.4643668634544</v>
       </c>
       <c r="P2" t="n">
-        <v>271.30001897862</v>
+        <v>271.3000189786203</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489421</v>
+        <v>125.7332381489423</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.7866511973265</v>
+        <v>62.78665119732659</v>
       </c>
       <c r="K3" t="n">
-        <v>235.2122289370082</v>
+        <v>188.3311744497623</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117027</v>
+        <v>378.2965115117029</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235792</v>
+        <v>493.9584501235794</v>
       </c>
       <c r="N3" t="n">
-        <v>522.8977305674496</v>
+        <v>522.8977305674499</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176284</v>
+        <v>411.2627234176286</v>
       </c>
       <c r="P3" t="n">
-        <v>110.0835781767558</v>
+        <v>312.8997772690506</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.9351446050478</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288198</v>
+        <v>43.23062041288206</v>
       </c>
       <c r="L4" t="n">
-        <v>111.4076180265728</v>
+        <v>111.4076180265729</v>
       </c>
       <c r="M4" t="n">
-        <v>127.9577764401678</v>
+        <v>127.9577764401679</v>
       </c>
       <c r="N4" t="n">
-        <v>130.4047380533389</v>
+        <v>130.404738053339</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334697</v>
+        <v>104.2718059334698</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953567</v>
+        <v>65.46427860953577</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35413,25 +35413,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>632.6567220787867</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35656,16 +35656,16 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>793.1038834872184</v>
       </c>
       <c r="P14" t="n">
-        <v>625.5308458386829</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M17" t="n">
-        <v>622.0883370197201</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>370.4649546993234</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>654.0944880967822</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>740.8875257003402</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,19 +36835,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>750.4609016724978</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>654.0944880967822</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>903.7193658423159</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597715</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>855.7934116805434</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412335</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>630.7064245296402</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813939</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>858.1401160802254</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>122.133384248864</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>527.426297583389</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813984</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,16 +38181,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
